--- a/gameData/shared/SmithConfig.xlsx
+++ b/gameData/shared/SmithConfig.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="620" windowWidth="35540" windowHeight="18780" tabRatio="883"/>
+    <workbookView xWindow="7800" yWindow="22200" windowWidth="20140" windowHeight="15560" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="49" r:id="rId1"/>
@@ -29,67 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="159">
-  <si>
-    <t>redDragon_S1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon_S1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon_S1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon_S2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon_S2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon_S2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon_S3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon_S3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon_S3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon_S4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon_S4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon_S4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon_S5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon_S5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon_S5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="150">
   <si>
     <t>moltenCrown</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -314,10 +254,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>armguard</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_name</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -334,9 +270,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>armguard</t>
-  </si>
-  <si>
     <t>STR_materials</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -549,6 +482,35 @@
   </si>
   <si>
     <t>INT_coin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>armguardLeft,armguardRight</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon</t>
+  </si>
+  <si>
+    <t>blueDragon</t>
+  </si>
+  <si>
+    <t>greenDragon</t>
+  </si>
+  <si>
+    <t>INT_maxStar</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_resolveLExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_resolveMExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_resolveSExp</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -692,8 +654,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1036">
+  <cellStyleXfs count="1118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1734,8 +1720,90 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1743,8 +1811,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1036">
+  <cellStyles count="1118">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2265,6 +2339,47 @@
     <cellStyle name="超链接" xfId="1030" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1032" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1034" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1036" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1038" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1040" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1042" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1044" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1046" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1048" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1050" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1052" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1054" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1056" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1058" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1060" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1062" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1064" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1066" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1068" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1070" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1072" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1074" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1076" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1078" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1080" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1082" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1084" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1086" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1088" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1090" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1092" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1094" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1096" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1098" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1116" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2778,6 +2893,47 @@
     <cellStyle name="访问过的超链接" xfId="1031" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1033" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1035" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1037" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1039" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1041" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1043" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1045" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1047" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1049" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1051" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1053" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1055" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1057" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1059" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1061" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1063" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1065" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1067" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1069" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1071" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1073" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1075" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1077" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1079" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1081" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1083" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1089" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1091" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1093" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1095" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1097" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1099" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1117" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3227,1361 +3383,2202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="17.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="2"/>
+    <col min="3" max="3" width="20.6640625" style="2"/>
+    <col min="4" max="4" width="27" style="2" customWidth="1"/>
+    <col min="5" max="7" width="17.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2">
+        <v>320</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="2">
+        <v>320</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="2">
+        <v>320</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="2">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2">
+        <v>75</v>
+      </c>
+      <c r="F9" s="2">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J9" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2">
+        <v>150</v>
+      </c>
+      <c r="F11" s="2">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J11" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2">
+        <v>150</v>
+      </c>
+      <c r="F12" s="2">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I12" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J12" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2">
+        <v>150</v>
+      </c>
+      <c r="F13" s="2">
+        <v>100</v>
+      </c>
+      <c r="G13" s="2">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I13" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J13" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2">
+        <v>300</v>
+      </c>
+      <c r="F14" s="2">
+        <v>200</v>
+      </c>
+      <c r="G14" s="2">
+        <v>100</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I14" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J14" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2">
+        <v>300</v>
+      </c>
+      <c r="F15" s="2">
+        <v>200</v>
+      </c>
+      <c r="G15" s="2">
+        <v>100</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J15" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="2">
+        <v>300</v>
+      </c>
+      <c r="F16" s="2">
+        <v>200</v>
+      </c>
+      <c r="G16" s="2">
+        <v>100</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J16" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="I17" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="2">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="2">
-        <v>320</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="I19" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2">
+        <v>75</v>
+      </c>
+      <c r="F20" s="2">
+        <v>50</v>
+      </c>
+      <c r="G20" s="2">
+        <v>25</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J20" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="2">
+        <v>75</v>
+      </c>
+      <c r="F21" s="2">
+        <v>50</v>
+      </c>
+      <c r="G21" s="2">
+        <v>25</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J21" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="2">
+        <v>75</v>
+      </c>
+      <c r="F22" s="2">
+        <v>50</v>
+      </c>
+      <c r="G22" s="2">
+        <v>25</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J22" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="2">
+        <v>150</v>
+      </c>
+      <c r="F23" s="2">
+        <v>100</v>
+      </c>
+      <c r="G23" s="2">
+        <v>50</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J23" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="2">
+        <v>150</v>
+      </c>
+      <c r="F24" s="2">
+        <v>100</v>
+      </c>
+      <c r="G24" s="2">
+        <v>50</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J24" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="20" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="2">
+        <v>150</v>
+      </c>
+      <c r="F25" s="2">
+        <v>100</v>
+      </c>
+      <c r="G25" s="2">
+        <v>50</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J25" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="20" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="2">
+        <v>300</v>
+      </c>
+      <c r="F26" s="2">
+        <v>200</v>
+      </c>
+      <c r="G26" s="2">
+        <v>100</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J26" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="20" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="2">
+        <v>300</v>
+      </c>
+      <c r="F27" s="2">
+        <v>200</v>
+      </c>
+      <c r="G27" s="2">
+        <v>100</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J27" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="20" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="2">
+        <v>300</v>
+      </c>
+      <c r="F28" s="2">
+        <v>200</v>
+      </c>
+      <c r="G28" s="2">
+        <v>100</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J28" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="2">
+        <v>30</v>
+      </c>
+      <c r="F29" s="2">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2">
+        <v>10</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J29" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="20" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="2">
+        <v>30</v>
+      </c>
+      <c r="F30" s="2">
+        <v>20</v>
+      </c>
+      <c r="G30" s="2">
+        <v>10</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="20" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="2">
+        <v>30</v>
+      </c>
+      <c r="F31" s="2">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2">
+        <v>10</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J31" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="20" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="2">
+        <v>75</v>
+      </c>
+      <c r="F32" s="2">
+        <v>50</v>
+      </c>
+      <c r="G32" s="2">
+        <v>25</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J32" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="2">
+        <v>75</v>
+      </c>
+      <c r="F33" s="2">
+        <v>50</v>
+      </c>
+      <c r="G33" s="2">
+        <v>25</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J33" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="2">
+        <v>75</v>
+      </c>
+      <c r="F34" s="2">
+        <v>50</v>
+      </c>
+      <c r="G34" s="2">
+        <v>25</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J34" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="2">
+        <v>150</v>
+      </c>
+      <c r="F35" s="2">
+        <v>100</v>
+      </c>
+      <c r="G35" s="2">
+        <v>50</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J35" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="20" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="2">
+        <v>150</v>
+      </c>
+      <c r="F36" s="2">
+        <v>100</v>
+      </c>
+      <c r="G36" s="2">
+        <v>50</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J36" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="20" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="2">
+        <v>150</v>
+      </c>
+      <c r="F37" s="2">
+        <v>100</v>
+      </c>
+      <c r="G37" s="2">
+        <v>50</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J37" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="20" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="2">
+        <v>300</v>
+      </c>
+      <c r="F38" s="2">
+        <v>200</v>
+      </c>
+      <c r="G38" s="2">
+        <v>100</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J38" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="20" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="2">
+        <v>300</v>
+      </c>
+      <c r="F39" s="2">
+        <v>200</v>
+      </c>
+      <c r="G39" s="2">
+        <v>100</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J39" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="20" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="2">
+        <v>300</v>
+      </c>
+      <c r="F40" s="2">
+        <v>200</v>
+      </c>
+      <c r="G40" s="2">
+        <v>100</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J40" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="20" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="2">
+        <v>30</v>
+      </c>
+      <c r="F41" s="2">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2">
+        <v>10</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J41" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="20" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="2">
+        <v>30</v>
+      </c>
+      <c r="F42" s="2">
+        <v>20</v>
+      </c>
+      <c r="G42" s="2">
+        <v>10</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J42" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="20" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="2">
+        <v>30</v>
+      </c>
+      <c r="F43" s="2">
+        <v>20</v>
+      </c>
+      <c r="G43" s="2">
+        <v>10</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J43" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="20" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="2">
+        <v>75</v>
+      </c>
+      <c r="F44" s="2">
+        <v>50</v>
+      </c>
+      <c r="G44" s="2">
+        <v>25</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J44" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="20" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="2">
+        <v>75</v>
+      </c>
+      <c r="F45" s="2">
+        <v>50</v>
+      </c>
+      <c r="G45" s="2">
+        <v>25</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J45" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="20" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="2">
+        <v>75</v>
+      </c>
+      <c r="F46" s="2">
+        <v>50</v>
+      </c>
+      <c r="G46" s="2">
+        <v>25</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I46" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J46" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="20" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="3">
+        <v>150</v>
+      </c>
+      <c r="F47" s="3">
+        <v>100</v>
+      </c>
+      <c r="G47" s="3">
+        <v>50</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I47" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J47" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="20" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="3">
+        <v>150</v>
+      </c>
+      <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="4">
+        <v>50</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I48" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J48" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="20" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="3">
+        <v>150</v>
+      </c>
+      <c r="F49" s="3">
+        <v>100</v>
+      </c>
+      <c r="G49" s="4">
+        <v>50</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I49" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J49" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="20" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="4">
+        <v>300</v>
+      </c>
+      <c r="F50" s="4">
+        <v>200</v>
+      </c>
+      <c r="G50" s="4">
+        <v>100</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I50" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J50" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="20" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="4">
+        <v>300</v>
+      </c>
+      <c r="F51" s="4">
+        <v>200</v>
+      </c>
+      <c r="G51" s="4">
+        <v>100</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J51" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="20" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="4">
+        <v>300</v>
+      </c>
+      <c r="F52" s="4">
+        <v>200</v>
+      </c>
+      <c r="G52" s="4">
+        <v>100</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I52" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J52" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="20" customHeight="1">
+      <c r="A53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="2">
-        <v>320</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="2">
-        <v>320</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1280</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1280</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1280</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5120</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5120</v>
-      </c>
-      <c r="F9" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5120</v>
-      </c>
-      <c r="F10" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="2">
-        <v>20480</v>
-      </c>
-      <c r="F11" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="2">
-        <v>20480</v>
-      </c>
-      <c r="F12" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="2">
-        <v>20480</v>
-      </c>
-      <c r="F13" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="2">
-        <v>81920</v>
-      </c>
-      <c r="F14" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="2">
-        <v>81920</v>
-      </c>
-      <c r="F15" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="2">
-        <v>81920</v>
-      </c>
-      <c r="F16" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1280</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1280</v>
-      </c>
-      <c r="F18" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1280</v>
-      </c>
-      <c r="F19" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="2">
-        <v>5120</v>
-      </c>
-      <c r="F20" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5120</v>
-      </c>
-      <c r="F21" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5120</v>
-      </c>
-      <c r="F22" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="2">
-        <v>20480</v>
-      </c>
-      <c r="F23" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="2">
-        <v>20480</v>
-      </c>
-      <c r="F24" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="2">
-        <v>20480</v>
-      </c>
-      <c r="F25" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="2">
-        <v>81920</v>
-      </c>
-      <c r="F26" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="2">
-        <v>81920</v>
-      </c>
-      <c r="F27" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="2">
-        <v>81920</v>
-      </c>
-      <c r="F28" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1280</v>
-      </c>
-      <c r="F29" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1280</v>
-      </c>
-      <c r="F30" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1280</v>
-      </c>
-      <c r="F31" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="2">
-        <v>5120</v>
-      </c>
-      <c r="F32" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="2">
-        <v>5120</v>
-      </c>
-      <c r="F33" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="2">
-        <v>5120</v>
-      </c>
-      <c r="F34" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="2">
-        <v>20480</v>
-      </c>
-      <c r="F35" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="2">
-        <v>20480</v>
-      </c>
-      <c r="F36" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="2">
-        <v>20480</v>
-      </c>
-      <c r="F37" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="2">
-        <v>81920</v>
-      </c>
-      <c r="F38" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="2">
-        <v>81920</v>
-      </c>
-      <c r="F39" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="2">
-        <v>81920</v>
-      </c>
-      <c r="F40" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1280</v>
-      </c>
-      <c r="F41" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1280</v>
-      </c>
-      <c r="F42" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1280</v>
-      </c>
-      <c r="F43" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="2">
-        <v>5120</v>
-      </c>
-      <c r="F44" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="2">
-        <v>5120</v>
-      </c>
-      <c r="F45" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="2">
-        <v>5120</v>
-      </c>
-      <c r="F46" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="20" customHeight="1">
-      <c r="A47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E47" s="2">
-        <v>20480</v>
-      </c>
-      <c r="F47" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="20" customHeight="1">
-      <c r="A48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" s="2">
-        <v>20480</v>
-      </c>
-      <c r="F48" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="20" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="2">
-        <v>20480</v>
-      </c>
-      <c r="F49" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="20" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="2">
-        <v>81920</v>
-      </c>
-      <c r="F50" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="20" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" s="2">
-        <v>81920</v>
-      </c>
-      <c r="F51" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="20" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" s="2">
-        <v>81920</v>
-      </c>
-      <c r="F52" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="20" customHeight="1">
-      <c r="A53" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="B53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>83</v>
+        <v>143</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="4">
+        <v>15</v>
+      </c>
+      <c r="F53" s="4">
+        <v>10</v>
+      </c>
+      <c r="G53" s="4">
+        <v>5</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I53" s="2">
         <v>320</v>
       </c>
-      <c r="F53" s="2">
+      <c r="J53" s="2">
         <v>1600</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="20" customHeight="1">
+    <row r="54" spans="1:10" ht="20" customHeight="1">
       <c r="A54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="4">
+        <v>15</v>
+      </c>
+      <c r="F54" s="4">
+        <v>10</v>
+      </c>
+      <c r="G54" s="4">
+        <v>5</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" s="2">
+        <v>320</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="20" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="4">
+        <v>15</v>
+      </c>
+      <c r="F55" s="4">
+        <v>10</v>
+      </c>
+      <c r="G55" s="4">
+        <v>5</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I55" s="2">
+        <v>320</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="20" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="4">
+        <v>30</v>
+      </c>
+      <c r="F56" s="4">
         <v>20</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="G56" s="4">
+        <v>10</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J56" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="20" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="4">
+        <v>30</v>
+      </c>
+      <c r="F57" s="4">
+        <v>20</v>
+      </c>
+      <c r="G57" s="4">
+        <v>10</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J57" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="20" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="4">
+        <v>30</v>
+      </c>
+      <c r="F58" s="4">
+        <v>20</v>
+      </c>
+      <c r="G58" s="4">
+        <v>10</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J58" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="20" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="2">
-        <v>320</v>
-      </c>
-      <c r="F54" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="20" customHeight="1">
-      <c r="A55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="C59" s="2">
+        <v>3</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" s="4">
+        <v>75</v>
+      </c>
+      <c r="F59" s="4">
+        <v>50</v>
+      </c>
+      <c r="G59" s="4">
+        <v>25</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I59" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J59" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="20" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="2">
-        <v>320</v>
-      </c>
-      <c r="F55" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="20" customHeight="1">
-      <c r="A56" s="2" t="s">
+      <c r="C60" s="2">
+        <v>3</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="4">
+        <v>75</v>
+      </c>
+      <c r="F60" s="4">
+        <v>50</v>
+      </c>
+      <c r="G60" s="4">
         <v>25</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="H60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J60" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="20" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="2">
         <v>3</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="4">
+        <v>75</v>
+      </c>
+      <c r="F61" s="4">
+        <v>50</v>
+      </c>
+      <c r="G61" s="4">
+        <v>25</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I61" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J61" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="20" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" s="4">
+        <v>150</v>
+      </c>
+      <c r="F62" s="4">
+        <v>100</v>
+      </c>
+      <c r="G62" s="4">
+        <v>50</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I62" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J62" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="20" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E63" s="4">
+        <v>150</v>
+      </c>
+      <c r="F63" s="4">
+        <v>100</v>
+      </c>
+      <c r="G63" s="4">
+        <v>50</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I63" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J63" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="20" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E56" s="2">
-        <v>1280</v>
-      </c>
-      <c r="F56" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="20" customHeight="1">
-      <c r="A57" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="C64" s="2">
         <v>4</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1280</v>
-      </c>
-      <c r="F57" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="20" customHeight="1">
-      <c r="A58" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="D64" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" s="4">
+        <v>150</v>
+      </c>
+      <c r="F64" s="4">
+        <v>100</v>
+      </c>
+      <c r="G64" s="4">
+        <v>50</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I64" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J64" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="20" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="2">
         <v>5</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1280</v>
-      </c>
-      <c r="F58" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="20" customHeight="1">
-      <c r="A59" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E59" s="2">
-        <v>5120</v>
-      </c>
-      <c r="F59" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="20" customHeight="1">
-      <c r="A60" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E60" s="2">
-        <v>5120</v>
-      </c>
-      <c r="F60" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="20" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E61" s="2">
-        <v>5120</v>
-      </c>
-      <c r="F61" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="20" customHeight="1">
-      <c r="A62" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E62" s="2">
-        <v>20480</v>
-      </c>
-      <c r="F62" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="20" customHeight="1">
-      <c r="A63" s="2" t="s">
+      <c r="D65" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E65" s="4">
+        <v>300</v>
+      </c>
+      <c r="F65" s="4">
+        <v>200</v>
+      </c>
+      <c r="G65" s="4">
+        <v>100</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I65" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J65" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="20" customHeight="1">
+      <c r="A66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E63" s="2">
-        <v>20480</v>
-      </c>
-      <c r="F63" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="20" customHeight="1">
-      <c r="A64" s="2" t="s">
+      <c r="B66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" s="4">
+        <v>300</v>
+      </c>
+      <c r="F66" s="4">
+        <v>200</v>
+      </c>
+      <c r="G66" s="4">
+        <v>100</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I66" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J66" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="20" customHeight="1">
+      <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E64" s="2">
-        <v>20480</v>
-      </c>
-      <c r="F64" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="20" customHeight="1">
-      <c r="A65" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="B67" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="4">
+        <v>300</v>
+      </c>
+      <c r="F67" s="4">
+        <v>200</v>
+      </c>
+      <c r="G67" s="4">
+        <v>100</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I67" s="2">
         <v>81920</v>
       </c>
-      <c r="F65" s="2">
+      <c r="J67" s="2">
         <v>16000</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="20" customHeight="1">
-      <c r="A66" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E66" s="2">
-        <v>81920</v>
-      </c>
-      <c r="F66" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="20" customHeight="1">
-      <c r="A67" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E67" s="2">
-        <v>81920</v>
-      </c>
-      <c r="F67" s="2">
-        <v>16000</v>
-      </c>
+    <row r="68" spans="1:10" ht="20" customHeight="1">
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" ht="20" customHeight="1">
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" ht="20" customHeight="1">
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" ht="20" customHeight="1">
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" ht="20" customHeight="1">
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" ht="20" customHeight="1">
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" ht="20" customHeight="1">
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/gameData/shared/SmithConfig.xlsx
+++ b/gameData/shared/SmithConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="22200" windowWidth="20140" windowHeight="15560" tabRatio="883"/>
+    <workbookView xWindow="4460" yWindow="0" windowWidth="24340" windowHeight="16560" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="49" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="151">
   <si>
     <t>moltenCrown</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -511,6 +511,10 @@
   </si>
   <si>
     <t>INT_resolveSExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>armguardLeft,armguardRight</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +683,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1118">
+  <cellStyleXfs count="1184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -694,6 +698,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1818,7 +1888,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1118">
+  <cellStyles count="1184">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2380,6 +2450,39 @@
     <cellStyle name="超链接" xfId="1112" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1114" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1182" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2934,6 +3037,39 @@
     <cellStyle name="访问过的超链接" xfId="1113" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1115" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1183" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3385,8 +3521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5076,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E53" s="4">
         <v>15</v>
